--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\web-app\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NM/web-app/OCCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E145C7-DA32-48E1-AEFA-9C38A9EDE413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{100F06D6-DDEE-2A45-B5D2-D84F014F98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Source:</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -182,6 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,33 +524,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,80 +564,80 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.88711067149387013</v>
       </c>
@@ -635,32 +645,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -680,17 +690,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -713,17 +723,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -746,17 +756,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>

--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NM/web-app/OCCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/aaggarwal/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state_3.3/web-app/occf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{100F06D6-DDEE-2A45-B5D2-D84F014F98A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63C58B0-F1B1-5C46-A4EA-31A8E1B57B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
   </si>
 </sst>
 </file>
@@ -539,9 +536,6 @@
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" s="9">
         <v>44631</v>
       </c>

--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NM\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59DD884D-BCD8-4B47-A058-40F22D60341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6E1731-5696-4001-82A4-A591A21E1183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="525" windowWidth="11950" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="145" windowWidth="5920" windowHeight="5620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
   </si>
   <si>
-    <t>2021 dollars per 2012 dollar</t>
-  </si>
-  <si>
     <t>billion 2021 dollars</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>which in this case is "2012 dollars per 2021 dollar."</t>
+  </si>
+  <si>
+    <t>2023 dollars per 2012 dollar</t>
   </si>
   <si>
     <t>New Mexico</t>
@@ -491,15 +491,15 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -507,20 +507,20 @@
         <v>29</v>
       </c>
       <c r="C1" s="7">
-        <v>45327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,113 +528,113 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.84730412960844359</v>
+        <v>0.75350342301658668</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -654,23 +654,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
         <f>10^9*About!$A$26</f>
-        <v>847304129.60844362</v>
+        <v>753503423.01658666</v>
       </c>
     </row>
   </sheetData>
@@ -687,23 +687,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6">
         <f>10^6*About!$A$26</f>
-        <v>847304.12960844359</v>
+        <v>753503.42301658669</v>
       </c>
     </row>
   </sheetData>
@@ -720,23 +720,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <f>1*About!A26</f>
-        <v>0.84730412960844359</v>
+        <v>0.75350342301658668</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NM\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6E1731-5696-4001-82A4-A591A21E1183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{180D8E76-5E6C-46AB-A3F7-E9311533D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="145" windowWidth="5920" windowHeight="5620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1355" windowWidth="10740" windowHeight="9445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -108,19 +108,19 @@
     <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
   </si>
   <si>
-    <t>billion 2021 dollars</t>
-  </si>
-  <si>
-    <t>million 2021 dollars</t>
-  </si>
-  <si>
-    <t>2021 dollars</t>
-  </si>
-  <si>
-    <t>which in this case is "2012 dollars per 2021 dollar."</t>
-  </si>
-  <si>
     <t>2023 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>billion 2023 dollars</t>
+  </si>
+  <si>
+    <t>million 2023 dollars</t>
+  </si>
+  <si>
+    <t>2023 dollars</t>
+  </si>
+  <si>
+    <t>which in this case is "2012 dollars per 2023 dollar."</t>
   </si>
   <si>
     <t>New Mexico</t>
@@ -491,15 +491,15 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -507,20 +507,20 @@
         <v>29</v>
       </c>
       <c r="C1" s="7">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,113 +528,113 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>0.75350342301658668</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -654,17 +654,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -687,17 +687,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,17 +720,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>

--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NM\web-app\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{180D8E76-5E6C-46AB-A3F7-E9311533D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBDDCD-D2F2-4949-A193-F5473D591A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1355" windowWidth="10740" windowHeight="9445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -105,25 +105,22 @@
     <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
   </si>
   <si>
-    <t>2012 dollars are worth more than 2020 dollars, so we need a</t>
-  </si>
-  <si>
-    <t>2023 dollars per 2012 dollar</t>
-  </si>
-  <si>
     <t>billion 2023 dollars</t>
   </si>
   <si>
     <t>million 2023 dollars</t>
   </si>
   <si>
-    <t>2023 dollars</t>
-  </si>
-  <si>
-    <t>which in this case is "2012 dollars per 2023 dollar."</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
+    <t>2024 dollars</t>
+  </si>
+  <si>
+    <t>2024 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>which in this case is "2012 dollars per 2024 dollar."</t>
+  </si>
+  <si>
+    <t>2012 dollars are worth more than 2024 dollars, so we need a</t>
   </si>
 </sst>
 </file>
@@ -173,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -183,7 +180,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,39 +484,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,113 +518,113 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.75350342301658668</v>
+        <v>0.73191600598044548</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -654,23 +644,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
         <f>10^9*About!$A$26</f>
-        <v>753503423.01658666</v>
+        <v>731916005.9804455</v>
       </c>
     </row>
   </sheetData>
@@ -687,23 +677,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6">
         <f>10^6*About!$A$26</f>
-        <v>753503.42301658669</v>
+        <v>731916.00598044554</v>
       </c>
     </row>
   </sheetData>
@@ -720,23 +710,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <f>1*About!A26</f>
-        <v>0.75350342301658668</v>
+        <v>0.73191600598044548</v>
       </c>
     </row>
   </sheetData>
